--- a/data/trans_orig/Q4502_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q4502_R-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>104547</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86958</v>
+        <v>87403</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126299</v>
+        <v>125344</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2206673913642176</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1835414631263693</v>
+        <v>0.1844812106636079</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2665806178754503</v>
+        <v>0.2645638078579332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -764,19 +764,19 @@
         <v>48147</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37111</v>
+        <v>35791</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63016</v>
+        <v>61181</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1576272004650974</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1214978763174302</v>
+        <v>0.1171763188369471</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2063063662979683</v>
+        <v>0.200299979666664</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -785,19 +785,19 @@
         <v>152694</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>131263</v>
+        <v>131330</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>173787</v>
+        <v>176831</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1959562079810348</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1684532360439772</v>
+        <v>0.1685392613562585</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2230254700550236</v>
+        <v>0.2269309886755893</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>114063</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97567</v>
+        <v>96757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135943</v>
+        <v>134445</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2407538470992731</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2059357472406758</v>
+        <v>0.204224565892151</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2869351657684736</v>
+        <v>0.2837730098808742</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>59</v>
@@ -835,19 +835,19 @@
         <v>61020</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47536</v>
+        <v>47515</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>76383</v>
+        <v>75733</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1997712995608146</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1556251561921625</v>
+        <v>0.1555578566502704</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2500676679079611</v>
+        <v>0.2479401112894514</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>171</v>
@@ -856,19 +856,19 @@
         <v>175084</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>152005</v>
+        <v>151861</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>199905</v>
+        <v>197977</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.224689059964452</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1950721452728589</v>
+        <v>0.1948874927661563</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2565435089553008</v>
+        <v>0.2540690108328307</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>147321</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>125593</v>
+        <v>128409</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>168044</v>
+        <v>168973</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.310950832113659</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2650889890188013</v>
+        <v>0.2710324871881642</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3546905223479515</v>
+        <v>0.3566506330545617</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>106</v>
@@ -906,19 +906,19 @@
         <v>107682</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>93050</v>
+        <v>90862</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>123996</v>
+        <v>123011</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3525374364692095</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3046341180235801</v>
+        <v>0.2974699572109878</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4059459339235411</v>
+        <v>0.4027217206696331</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>249</v>
@@ -927,19 +927,19 @@
         <v>255004</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>233140</v>
+        <v>231138</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>285620</v>
+        <v>279745</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3272524040451016</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2991946708200343</v>
+        <v>0.2966252160578344</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3665436265280277</v>
+        <v>0.3590032975727667</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>28555</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19092</v>
+        <v>18421</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41473</v>
+        <v>40401</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06027131787775616</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0402981062845361</v>
+        <v>0.0388806074664745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08753751760435081</v>
+        <v>0.08527526525192884</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -977,19 +977,19 @@
         <v>37219</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26545</v>
+        <v>26027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49661</v>
+        <v>49035</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1218513947097379</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08690518176030171</v>
+        <v>0.08520993101387565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1625840412893007</v>
+        <v>0.1605336114374944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -998,19 +998,19 @@
         <v>65775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51211</v>
+        <v>51001</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84072</v>
+        <v>86110</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08441014978232171</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06572014883306398</v>
+        <v>0.06545109421338786</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.107891648448117</v>
+        <v>0.1105073982498572</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>79290</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63409</v>
+        <v>63174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96956</v>
+        <v>94342</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1673566115450942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1338381643160144</v>
+        <v>0.1333414597317727</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2046459731630171</v>
+        <v>0.1991288106835296</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -1048,19 +1048,19 @@
         <v>51380</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38677</v>
+        <v>39277</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63949</v>
+        <v>64586</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1682126687951405</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1266221170040626</v>
+        <v>0.1285872190632266</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2093600320581191</v>
+        <v>0.2114450929837304</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>128</v>
@@ -1069,19 +1069,19 @@
         <v>130670</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>108045</v>
+        <v>109533</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>150169</v>
+        <v>151348</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.16769217822709</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1386564107232044</v>
+        <v>0.1405661144939959</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1927153991663823</v>
+        <v>0.1942287897514249</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>68235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53886</v>
+        <v>52843</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84851</v>
+        <v>84162</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1859597138380172</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1468542917475648</v>
+        <v>0.1440123434380008</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2312445607397183</v>
+        <v>0.2293665907046125</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1194,19 +1194,19 @@
         <v>65210</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49085</v>
+        <v>50297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81280</v>
+        <v>80363</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.175902507069231</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1324043596654988</v>
+        <v>0.1356743498408357</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2192487390161133</v>
+        <v>0.2167760352483684</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -1215,19 +1215,19 @@
         <v>133445</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112078</v>
+        <v>112162</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153945</v>
+        <v>154285</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1809053070383385</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1519389299705135</v>
+        <v>0.1520531120559045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2086961468545612</v>
+        <v>0.2091561681810151</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>84336</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69355</v>
+        <v>67988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101816</v>
+        <v>102881</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2298392428328565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1890112571477523</v>
+        <v>0.1852874029827979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2774789265395924</v>
+        <v>0.2803788851970256</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -1265,19 +1265,19 @@
         <v>58274</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>45417</v>
+        <v>44989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73257</v>
+        <v>73300</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.157193085682136</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1225097017842505</v>
+        <v>0.1213571336543284</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1976069396669902</v>
+        <v>0.1977229612559088</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>138</v>
@@ -1286,19 +1286,19 @@
         <v>142610</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>121660</v>
+        <v>121174</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>164650</v>
+        <v>166258</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1933297786133551</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1649287389760734</v>
+        <v>0.1642694861771358</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2232083329234331</v>
+        <v>0.2253877375448141</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>109184</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>92941</v>
+        <v>92478</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>127236</v>
+        <v>128572</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2975568770744352</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2532918995999779</v>
+        <v>0.2520276466120729</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3467542101080502</v>
+        <v>0.3503957777689476</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>109</v>
@@ -1336,19 +1336,19 @@
         <v>112937</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>97249</v>
+        <v>94749</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>132368</v>
+        <v>132269</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3046424241877554</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2623254642094129</v>
+        <v>0.2555814946330094</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.357057339044101</v>
+        <v>0.3567908968893035</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>215</v>
@@ -1357,19 +1357,19 @@
         <v>222120</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>197806</v>
+        <v>197333</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>248894</v>
+        <v>246728</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3011178297656099</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2681560222317166</v>
+        <v>0.2675142748716157</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3374140458039308</v>
+        <v>0.3344766008048543</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>21215</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13248</v>
+        <v>13372</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32393</v>
+        <v>31429</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05781713646404249</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0361034540249064</v>
+        <v>0.03644141752411867</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08828026249567669</v>
+        <v>0.08565327026737561</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1407,19 +1407,19 @@
         <v>39013</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28058</v>
+        <v>28598</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52710</v>
+        <v>52117</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1052364864874621</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07568541190491548</v>
+        <v>0.07714324679839621</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1421837801927757</v>
+        <v>0.1405823870546747</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -1428,19 +1428,19 @@
         <v>60228</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46404</v>
+        <v>46623</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76067</v>
+        <v>77734</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08164847360414998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06290775694326706</v>
+        <v>0.0632043166412046</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1031198141907028</v>
+        <v>0.105380254500727</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>83964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>67924</v>
+        <v>69131</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101635</v>
+        <v>102751</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2288270297906486</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1851132472564655</v>
+        <v>0.1884009203743607</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.276984910118198</v>
+        <v>0.2800253276015974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>95</v>
@@ -1478,19 +1478,19 @@
         <v>95284</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78717</v>
+        <v>80182</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>112215</v>
+        <v>114229</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2570254965734156</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2123364094018917</v>
+        <v>0.2162881480146212</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3026950060139685</v>
+        <v>0.3081282243167384</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>173</v>
@@ -1499,19 +1499,19 @@
         <v>179249</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>156109</v>
+        <v>156552</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>204108</v>
+        <v>203087</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2429986109785466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2116299615091444</v>
+        <v>0.2122304243547256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2766987466446315</v>
+        <v>0.2753147858331758</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>113190</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95269</v>
+        <v>94242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>133335</v>
+        <v>132201</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2086884232806843</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1756462654881617</v>
+        <v>0.1737540686624681</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2458282513333666</v>
+        <v>0.2437389769293087</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1624,19 +1624,19 @@
         <v>35819</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25653</v>
+        <v>26686</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47417</v>
+        <v>47652</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2149583687593676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1539538575038219</v>
+        <v>0.1601476448415166</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.284560145470767</v>
+        <v>0.285970527558417</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>147</v>
@@ -1645,19 +1645,19 @@
         <v>149009</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127810</v>
+        <v>128590</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>170575</v>
+        <v>171136</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2101619602766437</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1802622097806482</v>
+        <v>0.1813630689839684</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2405788898574139</v>
+        <v>0.2413699131972042</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>130489</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>111554</v>
+        <v>112033</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>152364</v>
+        <v>154122</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2405820539014739</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2056724750241141</v>
+        <v>0.2065550485923203</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2809134045313461</v>
+        <v>0.2841536554640859</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -1695,19 +1695,19 @@
         <v>36494</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25847</v>
+        <v>25983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47077</v>
+        <v>48048</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2190109289997486</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1551149821724557</v>
+        <v>0.1559288433307224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2825239428813546</v>
+        <v>0.2883476620477798</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>161</v>
@@ -1716,19 +1716,19 @@
         <v>166983</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>145126</v>
+        <v>145031</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>190514</v>
+        <v>190730</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.235512496168441</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2046856612866377</v>
+        <v>0.2045511673697273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2687000544433164</v>
+        <v>0.2690052244618154</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>148926</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>129439</v>
+        <v>129066</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>170513</v>
+        <v>168683</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.274574988075547</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2386455199999559</v>
+        <v>0.2379575118853684</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3143737838811883</v>
+        <v>0.3109995454233657</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -1766,19 +1766,19 @@
         <v>51985</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41048</v>
+        <v>40932</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63632</v>
+        <v>64057</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3119749938370481</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2463390444937663</v>
+        <v>0.2456426064997254</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3818734528100403</v>
+        <v>0.3844240274562328</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>200</v>
@@ -1787,19 +1787,19 @@
         <v>200911</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>177659</v>
+        <v>178793</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>227288</v>
+        <v>226778</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2833645847835299</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2505691147824334</v>
+        <v>0.2521694920246422</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3205658528952435</v>
+        <v>0.3198473131762336</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>42468</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29727</v>
+        <v>30962</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56668</v>
+        <v>56349</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07829884775941498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05480748929373541</v>
+        <v>0.05708372609410215</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.104477946910006</v>
+        <v>0.1038910383793069</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1837,19 +1837,19 @@
         <v>8442</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3255</v>
+        <v>3283</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15314</v>
+        <v>14687</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05066338687477315</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01953483741168887</v>
+        <v>0.01970133875906944</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09190382115527812</v>
+        <v>0.08814326069451628</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -1858,19 +1858,19 @@
         <v>50911</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38405</v>
+        <v>37641</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67447</v>
+        <v>66076</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07180407453493381</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05416693601239725</v>
+        <v>0.0530885860261869</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09512735461244268</v>
+        <v>0.09319354978229072</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>107315</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>89961</v>
+        <v>90355</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>125792</v>
+        <v>127489</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1978556869828799</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1658606981391388</v>
+        <v>0.1665876606058921</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2319223496585126</v>
+        <v>0.2350511921080696</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -1908,19 +1908,19 @@
         <v>33891</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24879</v>
+        <v>24926</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44690</v>
+        <v>45512</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2033923215290625</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1493069858660293</v>
+        <v>0.1495883018899645</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2681967513285347</v>
+        <v>0.2731323448929571</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -1929,19 +1929,19 @@
         <v>141206</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119499</v>
+        <v>122227</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>161032</v>
+        <v>164274</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1991568842364516</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1685411006681629</v>
+        <v>0.172388609860688</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2271188955639727</v>
+        <v>0.2316917589817815</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>308704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>281292</v>
+        <v>280764</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>342267</v>
+        <v>336983</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2499011183518601</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2277108141657769</v>
+        <v>0.2272837917684539</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2770710275100297</v>
+        <v>0.272793456917683</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>143</v>
@@ -2054,19 +2054,19 @@
         <v>147827</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>126650</v>
+        <v>126492</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>170512</v>
+        <v>170383</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2069583108719554</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1773095155407508</v>
+        <v>0.1770889533556071</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2387171821735596</v>
+        <v>0.238537090184898</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>455</v>
@@ -2075,19 +2075,19 @@
         <v>456531</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>417076</v>
+        <v>422322</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>494659</v>
+        <v>496567</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2341678352010908</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2139301431529856</v>
+        <v>0.2166214065295617</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2537251311891089</v>
+        <v>0.2547035511294495</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>293369</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>262480</v>
+        <v>267130</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>325563</v>
+        <v>323399</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2374873154130659</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2124821672722884</v>
+        <v>0.2162462564144494</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2635487714139484</v>
+        <v>0.2617972436315492</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>138</v>
@@ -2125,19 +2125,19 @@
         <v>144453</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>124842</v>
+        <v>123479</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>167758</v>
+        <v>165884</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2022345224198797</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1747790137955502</v>
+        <v>0.1728701796211676</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2348612489969062</v>
+        <v>0.2322373460995728</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>427</v>
@@ -2146,19 +2146,19 @@
         <v>437822</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>401073</v>
+        <v>400437</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>474726</v>
+        <v>473431</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2245714813871513</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2057220996052448</v>
+        <v>0.2053959152413349</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2435007945874965</v>
+        <v>0.2428365073523731</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>349268</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>317790</v>
+        <v>319163</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>382222</v>
+        <v>380605</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2827384115941282</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2572570858295062</v>
+        <v>0.2583679734528496</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3094158753530365</v>
+        <v>0.3081067947184852</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>193</v>
@@ -2196,19 +2196,19 @@
         <v>197040</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>175604</v>
+        <v>176438</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>222002</v>
+        <v>223870</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2758568346907434</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2458458150896987</v>
+        <v>0.2470136447237614</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.310802780393407</v>
+        <v>0.3134187033387498</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>531</v>
@@ -2217,19 +2217,19 @@
         <v>546308</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>509173</v>
+        <v>508784</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>590686</v>
+        <v>589069</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2802171558985053</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.261169435736246</v>
+        <v>0.2609701945827319</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.302980086931126</v>
+        <v>0.3021507018828106</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>61762</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>48039</v>
+        <v>48182</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76729</v>
+        <v>77308</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0499970470551591</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03888828801643535</v>
+        <v>0.03900455988154702</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06211334764602727</v>
+        <v>0.06258198462992488</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -2267,19 +2267,19 @@
         <v>58317</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44846</v>
+        <v>44807</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74037</v>
+        <v>74061</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08164393031424086</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06278385143247252</v>
+        <v>0.0627301589888295</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1036516793072299</v>
+        <v>0.1036850093061942</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>119</v>
@@ -2288,19 +2288,19 @@
         <v>120079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>100841</v>
+        <v>99098</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>141964</v>
+        <v>141974</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06159175649253051</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05172445370256352</v>
+        <v>0.05083045319670329</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07281759751320986</v>
+        <v>0.07282238271824606</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>222201</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>193646</v>
+        <v>195591</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>248923</v>
+        <v>249801</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1798761075857867</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1567595749519064</v>
+        <v>0.1583347525685386</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2015076497803411</v>
+        <v>0.2022180243145224</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>164</v>
@@ -2338,19 +2338,19 @@
         <v>166647</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>144394</v>
+        <v>144291</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>187647</v>
+        <v>189172</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2333064017031806</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2021512225957185</v>
+        <v>0.2020072180683196</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2627063281265484</v>
+        <v>0.2648416014815581</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>383</v>
@@ -2359,19 +2359,19 @@
         <v>388849</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>353881</v>
+        <v>354611</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>424272</v>
+        <v>426119</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1994517710207221</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1815158905583815</v>
+        <v>0.1818902083332738</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2176212199293024</v>
+        <v>0.2185686184781651</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>89501</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>73643</v>
+        <v>73886</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>106508</v>
+        <v>107250</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2553135577362705</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2100746535402391</v>
+        <v>0.2107678734681488</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3038257837044055</v>
+        <v>0.305943398258447</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>108</v>
@@ -2484,19 +2484,19 @@
         <v>111825</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>93597</v>
+        <v>93322</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>132598</v>
+        <v>131474</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1966152507689167</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1645662243475331</v>
+        <v>0.1640820093417135</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2331383770542615</v>
+        <v>0.2311627370856615</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>195</v>
@@ -2505,19 +2505,19 @@
         <v>201327</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>176989</v>
+        <v>176357</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>225027</v>
+        <v>226465</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2189984136886962</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1925248086779912</v>
+        <v>0.1918364624123703</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2447786853135908</v>
+        <v>0.2463431165392995</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>61757</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>48545</v>
+        <v>49390</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>77377</v>
+        <v>76999</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1761678778963212</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1384807792384574</v>
+        <v>0.1408910968357746</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2207273736026805</v>
+        <v>0.2196502105068598</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>95</v>
@@ -2555,19 +2555,19 @@
         <v>101963</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>84380</v>
+        <v>83968</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>123328</v>
+        <v>121481</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1792751776305007</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1483593290503304</v>
+        <v>0.1476354993829261</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2168393423001438</v>
+        <v>0.2135924768534856</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>155</v>
@@ -2576,19 +2576,19 @@
         <v>163720</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>139201</v>
+        <v>140433</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>186085</v>
+        <v>189383</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1780902849175063</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1514189942146416</v>
+        <v>0.152759959362641</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2024183746532263</v>
+        <v>0.2060063787528215</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>103906</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>87566</v>
+        <v>86435</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>122446</v>
+        <v>121127</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2964031283989951</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2497936983065222</v>
+        <v>0.2465662359247999</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3492917393030877</v>
+        <v>0.3455281048756752</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>152</v>
@@ -2626,19 +2626,19 @@
         <v>161544</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>141307</v>
+        <v>140765</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>185315</v>
+        <v>184269</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2840327307203774</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2484506407753332</v>
+        <v>0.2474971839863712</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3258273092548149</v>
+        <v>0.3239875730689341</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>247</v>
@@ -2647,19 +2647,19 @@
         <v>265450</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>237978</v>
+        <v>237858</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>299614</v>
+        <v>292340</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2887498791515402</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.258866733176617</v>
+        <v>0.2587359077420547</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3259126720006576</v>
+        <v>0.3180007692907618</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>16861</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10638</v>
+        <v>10461</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25347</v>
+        <v>26486</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04809928194157641</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03034684346246468</v>
+        <v>0.02983999371664522</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07230444188782117</v>
+        <v>0.0755547923196047</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>40</v>
@@ -2697,19 +2697,19 @@
         <v>41013</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>29173</v>
+        <v>30105</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>53571</v>
+        <v>54094</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07211125990575445</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.051292239242404</v>
+        <v>0.05293165835088373</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09418980852158625</v>
+        <v>0.09511017218093414</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>57</v>
@@ -2718,19 +2718,19 @@
         <v>57875</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>44611</v>
+        <v>44747</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>73659</v>
+        <v>74314</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06295487972093458</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0485265189024409</v>
+        <v>0.04867517582994275</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08012413206405414</v>
+        <v>0.0808369911586703</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>78530</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>64662</v>
+        <v>63790</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>95746</v>
+        <v>93395</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2240161540268368</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1844551782714204</v>
+        <v>0.1819693937144995</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2731267388265859</v>
+        <v>0.2664210087825354</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>144</v>
@@ -2768,19 +2768,19 @@
         <v>152406</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>129682</v>
+        <v>130961</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>174574</v>
+        <v>173285</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2679655809744507</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2280111055928722</v>
+        <v>0.2302598497003745</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3069429548325004</v>
+        <v>0.3046762838210995</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>225</v>
@@ -2789,19 +2789,19 @@
         <v>230936</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>205041</v>
+        <v>204895</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>258988</v>
+        <v>257636</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2512065425213228</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2230386611520463</v>
+        <v>0.222879821273294</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.281720562887871</v>
+        <v>0.2802504114572453</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>34134</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>24238</v>
+        <v>23776</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>45507</v>
+        <v>45152</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1144650297916885</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08128218374171642</v>
+        <v>0.07973146537663214</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1526060653152957</v>
+        <v>0.1514139546084296</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>265</v>
@@ -2914,19 +2914,19 @@
         <v>270746</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>240830</v>
+        <v>241554</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>299318</v>
+        <v>301612</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2171566365028097</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1931617547996345</v>
+        <v>0.1937431175709573</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2400736804179129</v>
+        <v>0.2419136491975659</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>300</v>
@@ -2935,19 +2935,19 @@
         <v>304880</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>277329</v>
+        <v>276131</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>336074</v>
+        <v>336879</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1973358399560746</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1795032274588047</v>
+        <v>0.1787283720839019</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2175265500053471</v>
+        <v>0.2180475514835704</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>64985</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>52497</v>
+        <v>52504</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>80558</v>
+        <v>79475</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.217922806971966</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1760457455967875</v>
+        <v>0.1760683773907884</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2701469122507659</v>
+        <v>0.2665147273026769</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>208</v>
@@ -2985,19 +2985,19 @@
         <v>211397</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>187519</v>
+        <v>184625</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>242299</v>
+        <v>236957</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1695549920198162</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1504031297772475</v>
+        <v>0.1480815260395193</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1943403941744271</v>
+        <v>0.1900558181792193</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>275</v>
@@ -3006,19 +3006,19 @@
         <v>276382</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>247601</v>
+        <v>246262</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>306855</v>
+        <v>306357</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1788906003551065</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1602615436743019</v>
+        <v>0.1593951412635323</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1986147587381047</v>
+        <v>0.1982918420077676</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>106819</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>91555</v>
+        <v>92289</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>123733</v>
+        <v>124537</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3582129923581741</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3070237839052174</v>
+        <v>0.3094865163582524</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4149299149010922</v>
+        <v>0.4176287001775395</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>356</v>
@@ -3056,19 +3056,19 @@
         <v>360318</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>329661</v>
+        <v>325454</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>394372</v>
+        <v>390997</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2889994638432947</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2644107231319838</v>
+        <v>0.2610365669326029</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3163131695030585</v>
+        <v>0.3136060269824569</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>467</v>
@@ -3077,19 +3077,19 @@
         <v>467137</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>434496</v>
+        <v>432783</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>508184</v>
+        <v>501721</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3023585621270934</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2812311435392388</v>
+        <v>0.2801223465449577</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3289264999044606</v>
+        <v>0.3247433909504829</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>24969</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>16608</v>
+        <v>17162</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>35339</v>
+        <v>36294</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08373358254614902</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0556947947914267</v>
+        <v>0.05755238385401314</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1185087945003688</v>
+        <v>0.1217110852474325</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>74</v>
@@ -3127,19 +3127,19 @@
         <v>72308</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>57115</v>
+        <v>57249</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>89979</v>
+        <v>88900</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05799582381678688</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04580991445942316</v>
+        <v>0.04591750428462327</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07216924564793119</v>
+        <v>0.07130402986277422</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>100</v>
@@ -3148,19 +3148,19 @@
         <v>97277</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>78141</v>
+        <v>80065</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>115618</v>
+        <v>118195</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06296354119585866</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05057754929283023</v>
+        <v>0.05182297641972892</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07483447300101657</v>
+        <v>0.07650300509064709</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>67294</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>54281</v>
+        <v>54510</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>82246</v>
+        <v>82833</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2256655883320224</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1820288029689799</v>
+        <v>0.1827946894328202</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2758070791417466</v>
+        <v>0.2777749673502944</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>333</v>
@@ -3198,19 +3198,19 @@
         <v>332008</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>301025</v>
+        <v>305750</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>365064</v>
+        <v>366256</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2662930838172925</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2414425571334338</v>
+        <v>0.2452326471860878</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2928057746471396</v>
+        <v>0.2937618809971436</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>400</v>
@@ -3219,19 +3219,19 @@
         <v>399302</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>361502</v>
+        <v>366347</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>433078</v>
+        <v>431497</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2584514563658668</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2339854732230121</v>
+        <v>0.2371211115358225</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2803130624582615</v>
+        <v>0.2792901760640649</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>718311</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>665644</v>
+        <v>669979</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>765061</v>
+        <v>769563</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2198580008039598</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2037378773912208</v>
+        <v>0.2050646196770152</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2341671453018443</v>
+        <v>0.2355451524301906</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>660</v>
@@ -3344,19 +3344,19 @@
         <v>679575</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>632955</v>
+        <v>635786</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>725690</v>
+        <v>736339</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2014979530842695</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1876750337628824</v>
+        <v>0.1885143578311365</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2151715083156967</v>
+        <v>0.2183289194737224</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1367</v>
@@ -3365,19 +3365,19 @@
         <v>1397886</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1331708</v>
+        <v>1334705</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1461000</v>
+        <v>1465034</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.210532175293975</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.200565319937506</v>
+        <v>0.2010166700133867</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2200376474087668</v>
+        <v>0.220645236407752</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>748998</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>701152</v>
+        <v>704061</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>796873</v>
+        <v>801689</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2292507459930953</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2146060407136277</v>
+        <v>0.2154964947867561</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2439040139499827</v>
+        <v>0.2453780205788612</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>591</v>
@@ -3415,19 +3415,19 @@
         <v>613602</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>568525</v>
+        <v>572814</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>659737</v>
+        <v>659923</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1819366442234362</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.168570893283868</v>
+        <v>0.1698428280419583</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1956160496780598</v>
+        <v>0.1956710934441664</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1327</v>
@@ -3436,19 +3436,19 @@
         <v>1362601</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1299930</v>
+        <v>1297313</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1424744</v>
+        <v>1424043</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.205217962200693</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.195779293762342</v>
+        <v>0.1953851310707725</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2145772453877491</v>
+        <v>0.2144716641527544</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>965424</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>915795</v>
+        <v>910327</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1019239</v>
+        <v>1022059</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2954934794651313</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2803031541775631</v>
+        <v>0.2786297459653987</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3119651590773241</v>
+        <v>0.3128282181221128</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>968</v>
@@ -3486,19 +3486,19 @@
         <v>991506</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>936784</v>
+        <v>941399</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1041121</v>
+        <v>1046734</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2939875229958938</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2777618496990098</v>
+        <v>0.2791303042625218</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3086986122560567</v>
+        <v>0.3103629393511759</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1909</v>
@@ -3507,19 +3507,19 @@
         <v>1956931</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1879570</v>
+        <v>1876763</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2029756</v>
+        <v>2030573</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2947285420601658</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2830775006055522</v>
+        <v>0.2826546954182794</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3056965861015759</v>
+        <v>0.3058196013029085</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>195831</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>169331</v>
+        <v>169732</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>224181</v>
+        <v>227681</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05993924757394565</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05182823231710471</v>
+        <v>0.05195087428059302</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06861659197190235</v>
+        <v>0.06968780193369158</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>252</v>
@@ -3557,19 +3557,19 @@
         <v>256313</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>225912</v>
+        <v>227429</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>286519</v>
+        <v>285903</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0759983384660676</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.06698415555398116</v>
+        <v>0.06743404041551183</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08495471819825923</v>
+        <v>0.08477193309215447</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>445</v>
@@ -3578,19 +3578,19 @@
         <v>452144</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>412653</v>
+        <v>410320</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>499124</v>
+        <v>495127</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0680963222066167</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06214863931557076</v>
+        <v>0.06179722628577956</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07517187822050868</v>
+        <v>0.07456982601491446</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>638594</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>594427</v>
+        <v>592606</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>689070</v>
+        <v>684338</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.195458526163868</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1819399969434292</v>
+        <v>0.1813827858930754</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2109081784280783</v>
+        <v>0.2094597075737757</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>820</v>
@@ -3628,19 +3628,19 @@
         <v>831618</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>784407</v>
+        <v>780156</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>879852</v>
+        <v>884108</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.246579541230333</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2325813375726912</v>
+        <v>0.2313209319399749</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2608813404906216</v>
+        <v>0.262143369461784</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1447</v>
@@ -3649,19 +3649,19 @@
         <v>1470212</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1398064</v>
+        <v>1402574</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1529058</v>
+        <v>1538540</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2214249982385495</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2105589458833246</v>
+        <v>0.2112382986440542</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.230287705298537</v>
+        <v>0.2317158263925755</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>159541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>139542</v>
+        <v>139498</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180617</v>
+        <v>183371</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3649063433145836</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3191647352661025</v>
+        <v>0.3190644374831841</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.413110796847907</v>
+        <v>0.4194117211370719</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -4016,19 +4016,19 @@
         <v>110260</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93451</v>
+        <v>91666</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>127418</v>
+        <v>127538</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3549021261924551</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3007955487608662</v>
+        <v>0.2950500167237547</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4101303079101837</v>
+        <v>0.4105137014103324</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>251</v>
@@ -4037,19 +4037,19 @@
         <v>269801</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>240689</v>
+        <v>244186</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>296990</v>
+        <v>298364</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3607505210301128</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3218244792168792</v>
+        <v>0.3265005918736523</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3971039930947546</v>
+        <v>0.398941033533036</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>106306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88893</v>
+        <v>88625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127037</v>
+        <v>127082</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2431457067614843</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.203318435097077</v>
+        <v>0.2027057167214455</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2905616505430728</v>
+        <v>0.2906658939932693</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -4087,19 +4087,19 @@
         <v>64877</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50821</v>
+        <v>50503</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82001</v>
+        <v>82474</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.208825492247261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1635807658827767</v>
+        <v>0.1625561789107544</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2639419421509345</v>
+        <v>0.2654646363656104</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -4108,19 +4108,19 @@
         <v>171183</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>148096</v>
+        <v>150490</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>197304</v>
+        <v>199394</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2288888478244122</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1980192482151739</v>
+        <v>0.2012198746202438</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2638139822992931</v>
+        <v>0.2666091778002335</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>80838</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64754</v>
+        <v>65513</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98086</v>
+        <v>97696</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1848943534563412</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.148106739264198</v>
+        <v>0.1498434485977351</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.224344593643867</v>
+        <v>0.2234525724545267</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>54</v>
@@ -4158,19 +4158,19 @@
         <v>59691</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46386</v>
+        <v>47479</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>77869</v>
+        <v>77105</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1921300867457772</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1493055193134466</v>
+        <v>0.1528241396892996</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2506432663268879</v>
+        <v>0.2481821463020974</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>129</v>
@@ -4179,7 +4179,7 @@
         <v>140528</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>118037</v>
+        <v>119460</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>164188</v>
@@ -4188,10 +4188,10 @@
         <v>0.1879001280493588</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1578264230345033</v>
+        <v>0.1597300779476843</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2195353222089175</v>
+        <v>0.2195352819910626</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>28146</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19303</v>
+        <v>18986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39305</v>
+        <v>42179</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06437685497716464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0441510324830122</v>
+        <v>0.04342632227069575</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08989934386278933</v>
+        <v>0.09647389270507951</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -4229,19 +4229,19 @@
         <v>25491</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17247</v>
+        <v>17193</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35989</v>
+        <v>37463</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08205099329472687</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05551346373102094</v>
+        <v>0.05534170950252812</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.115840873880522</v>
+        <v>0.1205850403181504</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -4250,19 +4250,19 @@
         <v>53638</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40658</v>
+        <v>40203</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69333</v>
+        <v>69435</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07171881657018901</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0543639855198236</v>
+        <v>0.05375467872674213</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09270515658783418</v>
+        <v>0.09284195878850797</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>62380</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47496</v>
+        <v>47837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79558</v>
+        <v>81523</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1426767414904263</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1086350304186193</v>
+        <v>0.1094129561780637</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1819666279407846</v>
+        <v>0.1864614907660954</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -4300,19 +4300,19 @@
         <v>50358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38072</v>
+        <v>37189</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>66491</v>
+        <v>63673</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1620913015197799</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1225437631942309</v>
+        <v>0.1197013800350806</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2140202193915688</v>
+        <v>0.2049471364958142</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>102</v>
@@ -4321,19 +4321,19 @@
         <v>112738</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>92310</v>
+        <v>93056</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135499</v>
+        <v>134445</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1507416865259272</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1234272384956121</v>
+        <v>0.1244249755113761</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1811752171282336</v>
+        <v>0.1797654207283958</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>165696</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144417</v>
+        <v>144360</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189080</v>
+        <v>189256</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3964514984792804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3455388150301753</v>
+        <v>0.345401948941574</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4524016068511886</v>
+        <v>0.4528241030725299</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>95</v>
@@ -4446,19 +4446,19 @@
         <v>102905</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85599</v>
+        <v>85502</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>120637</v>
+        <v>120810</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3053199317784834</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2539728963468966</v>
+        <v>0.2536852336240774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3579306897575125</v>
+        <v>0.358446519175575</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>242</v>
@@ -4467,19 +4467,19 @@
         <v>268600</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>241271</v>
+        <v>242696</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>295532</v>
+        <v>298046</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3557687979247864</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3195700766918937</v>
+        <v>0.3214571807846317</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3914397388541243</v>
+        <v>0.3947697189920851</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>103537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>85556</v>
+        <v>84875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>123270</v>
+        <v>123818</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2477269540449637</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2047042886985957</v>
+        <v>0.2030752772753386</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2949405531503166</v>
+        <v>0.2962525964511142</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -4517,19 +4517,19 @@
         <v>62691</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49329</v>
+        <v>48612</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78901</v>
+        <v>78363</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1860040563244754</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1463594989514274</v>
+        <v>0.1442317435381145</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2340992619810187</v>
+        <v>0.232504836568756</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>149</v>
@@ -4538,19 +4538,19 @@
         <v>166227</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>140597</v>
+        <v>146055</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>189124</v>
+        <v>192394</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2201727897062492</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1862245545281893</v>
+        <v>0.1934536079149481</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2505002830667012</v>
+        <v>0.2548316833027097</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>80631</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65430</v>
+        <v>64670</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>101476</v>
+        <v>97906</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.192921597149131</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1565507781802045</v>
+        <v>0.1547334142698147</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2427958026667202</v>
+        <v>0.2342533941563704</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -4588,19 +4588,19 @@
         <v>66744</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51332</v>
+        <v>51815</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>81985</v>
+        <v>83298</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1980313882013328</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.152301618314946</v>
+        <v>0.1537358767378914</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.243250514026785</v>
+        <v>0.2471454125658027</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>131</v>
@@ -4609,19 +4609,19 @@
         <v>147375</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>124383</v>
+        <v>126059</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>171030</v>
+        <v>169855</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1952026958594744</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1647493022418687</v>
+        <v>0.1669683631727316</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2265342212331621</v>
+        <v>0.2249776408824689</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>10210</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5307</v>
+        <v>5262</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17583</v>
+        <v>18258</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02442777308712821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01269801237358525</v>
+        <v>0.01259111609184326</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04206879713841172</v>
+        <v>0.04368514738561644</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -4659,19 +4659,19 @@
         <v>29968</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19896</v>
+        <v>20034</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42921</v>
+        <v>42331</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08891563873764345</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05903260657800508</v>
+        <v>0.05944116477933217</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.127345891867428</v>
+        <v>0.125597684258339</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -4680,19 +4680,19 @@
         <v>40178</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28696</v>
+        <v>28047</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54232</v>
+        <v>53827</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05321626671932871</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03800853411261317</v>
+        <v>0.03714880191865389</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07183121300510389</v>
+        <v>0.07129503550853911</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>57874</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44099</v>
+        <v>42969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74466</v>
+        <v>74652</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1384721772394968</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1055140636057462</v>
+        <v>0.1028091999112346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1781714590289772</v>
+        <v>0.1786171197206098</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -4730,19 +4730,19 @@
         <v>74731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59678</v>
+        <v>58982</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92520</v>
+        <v>90611</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.221728984958065</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1770665156619304</v>
+        <v>0.1750016375453006</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2745080083965317</v>
+        <v>0.2688431604768878</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -4751,19 +4751,19 @@
         <v>132605</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>110830</v>
+        <v>113635</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154262</v>
+        <v>154065</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1756394497901614</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1467969743394258</v>
+        <v>0.1505130057011619</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2043242831981546</v>
+        <v>0.2040638800246451</v>
       </c>
     </row>
     <row r="15">
@@ -4855,19 +4855,19 @@
         <v>258560</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>232206</v>
+        <v>234428</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>284037</v>
+        <v>287008</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4120810370517576</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3700796750135041</v>
+        <v>0.3736208596579311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4526842438439899</v>
+        <v>0.4574203845418362</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -4876,19 +4876,19 @@
         <v>101715</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85381</v>
+        <v>86788</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118540</v>
+        <v>117500</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3910172581141683</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3282270006602084</v>
+        <v>0.3336343864343162</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.455696181617019</v>
+        <v>0.4517001082065213</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>336</v>
@@ -4897,19 +4897,19 @@
         <v>360276</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>330593</v>
+        <v>332578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>390455</v>
+        <v>391611</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4059077212145744</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3724654397190554</v>
+        <v>0.3747019845139136</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4399092631475461</v>
+        <v>0.4412124587487793</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>130124</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109965</v>
+        <v>110232</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>152381</v>
+        <v>151491</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2073861914451296</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1752574776549253</v>
+        <v>0.1756819991027529</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2428581900722294</v>
+        <v>0.241439080768872</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -4947,19 +4947,19 @@
         <v>40758</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29931</v>
+        <v>29376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53943</v>
+        <v>53681</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.156685700969188</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1150608403647307</v>
+        <v>0.112927745577831</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2073703426106415</v>
+        <v>0.2063636317506702</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>162</v>
@@ -4968,19 +4968,19 @@
         <v>170883</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>148444</v>
+        <v>147281</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>198290</v>
+        <v>195828</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1925270276770584</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1672454502148774</v>
+        <v>0.1659358311323932</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2234047892710608</v>
+        <v>0.2206317969905038</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>107272</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>89044</v>
+        <v>89120</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>128029</v>
+        <v>128163</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1709654320665372</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1419138096608599</v>
+        <v>0.1420347641848226</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.204046478998067</v>
+        <v>0.2042601582304109</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>43</v>
@@ -5018,19 +5018,19 @@
         <v>46125</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>34374</v>
+        <v>34560</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>60731</v>
+        <v>59344</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.177314342295404</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1321420887976243</v>
+        <v>0.132857325558224</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2334648711488432</v>
+        <v>0.2281326029587906</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>146</v>
@@ -5039,19 +5039,19 @@
         <v>153397</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>131193</v>
+        <v>131661</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>175030</v>
+        <v>179184</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.172826153648398</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1478093045576999</v>
+        <v>0.1483375318325835</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1971987947588306</v>
+        <v>0.2018791695914373</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>24130</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15064</v>
+        <v>15316</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35439</v>
+        <v>35872</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03845772757109652</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02400812207973867</v>
+        <v>0.02441022837757254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05648091065417056</v>
+        <v>0.05717156127954047</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -5089,19 +5089,19 @@
         <v>17293</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10335</v>
+        <v>10430</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26378</v>
+        <v>27677</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06647974227127308</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0397312267846593</v>
+        <v>0.04009551889022644</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1014040664483464</v>
+        <v>0.1063966500670816</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -5110,19 +5110,19 @@
         <v>41424</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30262</v>
+        <v>29319</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56844</v>
+        <v>56538</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04667034448332943</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0340944316351109</v>
+        <v>0.03303291518476606</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06404433201853368</v>
+        <v>0.06369890121869697</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>107363</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>89837</v>
+        <v>89429</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>127250</v>
+        <v>129027</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1711096118654792</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1431785474807509</v>
+        <v>0.1425274656904437</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2028053679174735</v>
+        <v>0.2056378172549238</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -5160,19 +5160,19 @@
         <v>54238</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40483</v>
+        <v>40703</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>67976</v>
+        <v>68703</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2085029563499666</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1556258960403964</v>
+        <v>0.1564738124811847</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2613150964550104</v>
+        <v>0.2641111750671417</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>151</v>
@@ -5181,19 +5181,19 @@
         <v>161601</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>139371</v>
+        <v>138338</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>186528</v>
+        <v>186488</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1820687529766398</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1570237133821855</v>
+        <v>0.1558603144755872</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2101532826881552</v>
+        <v>0.2101083331294093</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>480500</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>443177</v>
+        <v>444743</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>511820</v>
+        <v>514316</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4149236690535997</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3826946457551051</v>
+        <v>0.3840470208363144</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.441969558181197</v>
+        <v>0.4441248023131398</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>260</v>
@@ -5306,19 +5306,19 @@
         <v>277997</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>251884</v>
+        <v>250356</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>304439</v>
+        <v>306343</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3630742682689463</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3289697571424786</v>
+        <v>0.3269742359029904</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3976075605401051</v>
+        <v>0.4000942488112567</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>709</v>
@@ -5327,19 +5327,19 @@
         <v>758497</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>711359</v>
+        <v>713875</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>803811</v>
+        <v>803115</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3942866573809936</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3697830379430277</v>
+        <v>0.3710907239879116</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4178421300168969</v>
+        <v>0.4174800428870121</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>244470</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>215780</v>
+        <v>217438</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>271979</v>
+        <v>277258</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2111063230993542</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1863313339251261</v>
+        <v>0.187763044011402</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2348610476725102</v>
+        <v>0.2394188021907274</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>138</v>
@@ -5377,19 +5377,19 @@
         <v>147701</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>126509</v>
+        <v>128052</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>171292</v>
+        <v>172187</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1929030715266725</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1652249595655269</v>
+        <v>0.167240757295526</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2237131647438036</v>
+        <v>0.2248822084958589</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>367</v>
@@ -5398,19 +5398,19 @@
         <v>392172</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>358168</v>
+        <v>355949</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>430222</v>
+        <v>426915</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2038610953918045</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1861849158121888</v>
+        <v>0.1850313725374689</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2236404776806365</v>
+        <v>0.2219215155540434</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>176649</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>151610</v>
+        <v>151255</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>201360</v>
+        <v>200325</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1525405619893778</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1309192221113366</v>
+        <v>0.1306128685958003</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1738795620214175</v>
+        <v>0.1729860400253196</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>122</v>
@@ -5448,19 +5448,19 @@
         <v>132649</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111047</v>
+        <v>111238</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>156073</v>
+        <v>156167</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1732449326197742</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1450312626733738</v>
+        <v>0.1452806627517224</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2038363707436298</v>
+        <v>0.2039601123037772</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>290</v>
@@ -5469,19 +5469,19 @@
         <v>309298</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>275956</v>
+        <v>277972</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>344276</v>
+        <v>342556</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1607812809158715</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1434493107530249</v>
+        <v>0.144497001902801</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1789637425821754</v>
+        <v>0.1780696848039935</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>52017</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38382</v>
+        <v>39187</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68935</v>
+        <v>67981</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04491779937662591</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03314345542394836</v>
+        <v>0.03383914716681719</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05952719170040859</v>
+        <v>0.05870289505324256</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -5519,19 +5519,19 @@
         <v>47328</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>35174</v>
+        <v>34871</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63585</v>
+        <v>61911</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06181181156522868</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04593913950009285</v>
+        <v>0.04554291744752572</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08304367568222873</v>
+        <v>0.08085748066311726</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>92</v>
@@ -5540,19 +5540,19 @@
         <v>99345</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80242</v>
+        <v>80693</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>122164</v>
+        <v>120202</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0516419258169943</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04171196377457119</v>
+        <v>0.04194633613539149</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06350410464272895</v>
+        <v>0.06248437387812165</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>204408</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>173802</v>
+        <v>178596</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>229556</v>
+        <v>233018</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1765116464810425</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1500823808952066</v>
+        <v>0.1542220594334099</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1982270206193522</v>
+        <v>0.2012170850378797</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>146</v>
@@ -5590,19 +5590,19 @@
         <v>160000</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>137313</v>
+        <v>137370</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>183314</v>
+        <v>186470</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2089659160193783</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1793359410433799</v>
+        <v>0.1794098421488658</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2394143419827087</v>
+        <v>0.2435363575023771</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>334</v>
@@ -5611,19 +5611,19 @@
         <v>364408</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>327459</v>
+        <v>327891</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>402716</v>
+        <v>401779</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1894290404943361</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1702215857150919</v>
+        <v>0.1704465547374596</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.209342420289434</v>
+        <v>0.2088554801843524</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>213951</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>192659</v>
+        <v>191813</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>238066</v>
+        <v>238570</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4190223235259483</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3773221157688334</v>
+        <v>0.3756646776354726</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4662511200065295</v>
+        <v>0.467238691371188</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>254</v>
@@ -5736,19 +5736,19 @@
         <v>275061</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>248778</v>
+        <v>246668</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>300713</v>
+        <v>299609</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3622817714148626</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3276640422121131</v>
+        <v>0.3248845736552277</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3960676648735924</v>
+        <v>0.3946133894782287</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>457</v>
@@ -5757,19 +5757,19 @@
         <v>489012</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>456933</v>
+        <v>451855</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>523008</v>
+        <v>525314</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3850968043450732</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.359834350836271</v>
+        <v>0.3558350675820465</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4118684068219571</v>
+        <v>0.4136839912344591</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>89402</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>74312</v>
+        <v>73548</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>108368</v>
+        <v>109177</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1750931200837563</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1455405403244242</v>
+        <v>0.1440434415468206</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2122378248162058</v>
+        <v>0.2138224526209469</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>126</v>
@@ -5807,19 +5807,19 @@
         <v>132162</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>113670</v>
+        <v>112904</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>154060</v>
+        <v>154227</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1740696526038339</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1497141551864053</v>
+        <v>0.1487054004490657</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2029114649584847</v>
+        <v>0.2031310300732362</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>211</v>
@@ -5828,19 +5828,19 @@
         <v>221564</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>194824</v>
+        <v>194797</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>251836</v>
+        <v>251289</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1744811826892605</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1534237540035405</v>
+        <v>0.1534022717947061</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1983204555842263</v>
+        <v>0.1978895356338296</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>81350</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>64239</v>
+        <v>66692</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>98188</v>
+        <v>99120</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1593242340902369</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1258124916313701</v>
+        <v>0.1306164244760883</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1923012269978857</v>
+        <v>0.1941261009914595</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>100</v>
@@ -5878,19 +5878,19 @@
         <v>107498</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>89781</v>
+        <v>89336</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>129800</v>
+        <v>128626</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.141584368714376</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1182506465082766</v>
+        <v>0.1176644347165264</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1709582988046476</v>
+        <v>0.1694122692113413</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>177</v>
@@ -5899,19 +5899,19 @@
         <v>188848</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>163738</v>
+        <v>164342</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>213709</v>
+        <v>216550</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1487174613204434</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1289433151173258</v>
+        <v>0.1294189036736704</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1682957850224476</v>
+        <v>0.170533011084117</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>18164</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11326</v>
+        <v>10987</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>28501</v>
+        <v>27380</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03557398266607735</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02218110034023286</v>
+        <v>0.02151804679584296</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05581976821983638</v>
+        <v>0.05362454996406772</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>44</v>
@@ -5949,19 +5949,19 @@
         <v>47776</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>35019</v>
+        <v>34878</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>64563</v>
+        <v>62389</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06292560615154824</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04612369830849899</v>
+        <v>0.04593721267627141</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08503536437318367</v>
+        <v>0.0821720900386632</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>62</v>
@@ -5970,19 +5970,19 @@
         <v>65940</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>51488</v>
+        <v>49866</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>83963</v>
+        <v>83331</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05192768372573136</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04054689355750448</v>
+        <v>0.03926961464134186</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06612054623749794</v>
+        <v>0.06562282642966399</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>107729</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>90581</v>
+        <v>89844</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>126984</v>
+        <v>126505</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2109863396339812</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1774017957444762</v>
+        <v>0.1759595822636041</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2486978890408408</v>
+        <v>0.2477596987978825</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>177</v>
@@ -6020,19 +6020,19 @@
         <v>196750</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>172393</v>
+        <v>172675</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>223482</v>
+        <v>222957</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2591386011153792</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2270580583541651</v>
+        <v>0.2274287452877266</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2943462776938535</v>
+        <v>0.2936556108095135</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>281</v>
@@ -6041,19 +6041,19 @@
         <v>304479</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>274328</v>
+        <v>274148</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>336358</v>
+        <v>333810</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2397768679194915</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2160330757105938</v>
+        <v>0.2158914182002754</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2648817998526904</v>
+        <v>0.2628749409593643</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>74002</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>60212</v>
+        <v>59286</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>89812</v>
+        <v>90932</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2772854386970412</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2256115429576575</v>
+        <v>0.2221425518540504</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.336524046118759</v>
+        <v>0.3407212759788875</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>476</v>
@@ -6166,19 +6166,19 @@
         <v>504651</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>472100</v>
+        <v>472249</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>536048</v>
+        <v>539848</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4558153197793465</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4264137733251959</v>
+        <v>0.4265485891484099</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4841734005677586</v>
+        <v>0.4876055252304135</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>548</v>
@@ -6187,19 +6187,19 @@
         <v>578654</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>543708</v>
+        <v>538857</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>615825</v>
+        <v>610994</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4211387288832679</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3957057373253074</v>
+        <v>0.3921749877417517</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4481911823338279</v>
+        <v>0.4446758744665807</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>64926</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>52589</v>
+        <v>50724</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>81062</v>
+        <v>78536</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2432775104945698</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1970512820801714</v>
+        <v>0.1900612405865374</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3037368705996428</v>
+        <v>0.2942735410292283</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>182</v>
@@ -6237,19 +6237,19 @@
         <v>193009</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>168975</v>
+        <v>167002</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>217580</v>
+        <v>219438</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1743313960407243</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1526225352964105</v>
+        <v>0.150840548468831</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1965241184644916</v>
+        <v>0.1982022034270002</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>248</v>
@@ -6258,19 +6258,19 @@
         <v>257936</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>228885</v>
+        <v>230718</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>288041</v>
+        <v>287774</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1877230825768735</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1665804768095384</v>
+        <v>0.1679142990780016</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2096333832706351</v>
+        <v>0.2094388015489199</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>62102</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>49509</v>
+        <v>50496</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>76658</v>
+        <v>79084</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2326929528901797</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1855103884668586</v>
+        <v>0.1892062439108508</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2872361838001886</v>
+        <v>0.2963255941051315</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>154</v>
@@ -6308,19 +6308,19 @@
         <v>162305</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>139119</v>
+        <v>140009</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>186550</v>
+        <v>186051</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1465982129463921</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1256564437398854</v>
+        <v>0.1264596331392123</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1684975477291874</v>
+        <v>0.1680468129181988</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>216</v>
@@ -6329,19 +6329,19 @@
         <v>224406</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>197322</v>
+        <v>197450</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>251783</v>
+        <v>252760</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.163320747332435</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1436092686500222</v>
+        <v>0.1437021198023543</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1832455752117443</v>
+        <v>0.1839564166763109</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>21111</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13370</v>
+        <v>13073</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>31419</v>
+        <v>30972</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07910350688931141</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05009670721610471</v>
+        <v>0.04898419430528258</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1177256382610318</v>
+        <v>0.1160504905015099</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>56</v>
@@ -6379,19 +6379,19 @@
         <v>59253</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>44812</v>
+        <v>45676</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>76099</v>
+        <v>75597</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05351922484483587</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04047581316485176</v>
+        <v>0.04125629700021433</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06873477129530679</v>
+        <v>0.06828157615063013</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>77</v>
@@ -6400,19 +6400,19 @@
         <v>80365</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>64093</v>
+        <v>64711</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>99555</v>
+        <v>99728</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05848856485922352</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04664648327536309</v>
+        <v>0.04709600687429314</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07245532804601061</v>
+        <v>0.07258118109024332</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>44740</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>33963</v>
+        <v>33776</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>58335</v>
+        <v>58410</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1676405910288978</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1272571567283639</v>
+        <v>0.1265582789016095</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2185802729737507</v>
+        <v>0.2188606214995795</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>174</v>
@@ -6450,19 +6450,19 @@
         <v>187921</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>164774</v>
+        <v>163795</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>217060</v>
+        <v>215317</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1697358463887012</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1488289331102167</v>
+        <v>0.1479439308604664</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1960549596293334</v>
+        <v>0.1944799380251161</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>218</v>
@@ -6471,19 +6471,19 @@
         <v>232662</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>201855</v>
+        <v>205974</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>259590</v>
+        <v>263826</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1693288763482002</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1469084551837206</v>
+        <v>0.1499055350578414</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1889271322516871</v>
+        <v>0.1920103413837121</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>1352251</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1297989</v>
+        <v>1292787</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1410022</v>
+        <v>1409922</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3956112058448207</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3797365717446808</v>
+        <v>0.3782146374660233</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4125127866026874</v>
+        <v>0.4124833404085917</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1283</v>
@@ -6596,19 +6596,19 @@
         <v>1372590</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1309712</v>
+        <v>1313695</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1437494</v>
+        <v>1429700</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3877472382036898</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3699847533883934</v>
+        <v>0.3711099612490579</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4060820604176604</v>
+        <v>0.4038803205625798</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2543</v>
@@ -6617,19 +6617,19 @@
         <v>2724841</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2636000</v>
+        <v>2640418</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2810303</v>
+        <v>2807534</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3916104047167852</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3788422826053414</v>
+        <v>0.3794773218648849</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4038929077107808</v>
+        <v>0.4034949168319354</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>738766</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>683667</v>
+        <v>686329</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>786495</v>
+        <v>788993</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2161315740191155</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2000119457191107</v>
+        <v>0.2007907816843925</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.230095136708736</v>
+        <v>0.230826046761737</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>596</v>
@@ -6667,19 +6667,19 @@
         <v>641199</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>592928</v>
+        <v>594921</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>690035</v>
+        <v>691298</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1811343089879415</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1674981357178889</v>
+        <v>0.1680612065408009</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.194930163425544</v>
+        <v>0.1952870020777</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1288</v>
@@ -6688,19 +6688,19 @@
         <v>1379965</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1311761</v>
+        <v>1311279</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1452685</v>
+        <v>1451569</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1983266816537717</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1885244569594168</v>
+        <v>0.1884551682501186</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2087778695287373</v>
+        <v>0.2086175826792505</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>588842</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>543136</v>
+        <v>546658</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>632227</v>
+        <v>636532</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.172270120768572</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1588985400519585</v>
+        <v>0.1599288649763057</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1849628728263848</v>
+        <v>0.1862223904663903</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>531</v>
@@ -6738,19 +6738,19 @@
         <v>575011</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>531135</v>
+        <v>527719</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>620831</v>
+        <v>614447</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1624367296608514</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.150041987808825</v>
+        <v>0.1490768829630394</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1753804802522099</v>
+        <v>0.173577184729869</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1089</v>
@@ -6759,19 +6759,19 @@
         <v>1163853</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1093065</v>
+        <v>1094482</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1227749</v>
+        <v>1226713</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1672673735509441</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1570938299545388</v>
+        <v>0.1572974568111923</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1764503438443436</v>
+        <v>0.1763014936680854</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>153778</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>129137</v>
+        <v>129544</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>178846</v>
+        <v>178641</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04498895251569937</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03777994706321645</v>
+        <v>0.03789914259150828</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05232267637852249</v>
+        <v>0.05226290156807956</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>211</v>
@@ -6809,19 +6809,19 @@
         <v>227110</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>199636</v>
+        <v>196342</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>260364</v>
+        <v>256010</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.06415700542503096</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05639588394215429</v>
+        <v>0.05546537453258877</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0735510365684599</v>
+        <v>0.07232111310618243</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>357</v>
@@ -6830,19 +6830,19 @@
         <v>380888</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>343646</v>
+        <v>344042</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>418253</v>
+        <v>423856</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05474071793507892</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04938834105761379</v>
+        <v>0.04944519516741519</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06011078087952242</v>
+        <v>0.0609160052664516</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>584494</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>540149</v>
+        <v>537391</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>630666</v>
+        <v>630284</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1709981468517923</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1580246942245941</v>
+        <v>0.1572178864477972</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1845060750161174</v>
+        <v>0.1843944313842251</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>661</v>
@@ -6880,19 +6880,19 @@
         <v>723999</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>676954</v>
+        <v>674250</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>782324</v>
+        <v>772854</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2045247177224863</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1912348024048384</v>
+        <v>0.1904711384200697</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2210010771164787</v>
+        <v>0.2183260767346228</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1206</v>
@@ -6901,19 +6901,19 @@
         <v>1308493</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1241364</v>
+        <v>1240003</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1379787</v>
+        <v>1376306</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1880548221434201</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1784071474818558</v>
+        <v>0.1782115507084563</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1983011618733036</v>
+        <v>0.1978008613567017</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>99134</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82261</v>
+        <v>81905</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>119528</v>
+        <v>117217</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2314996703258261</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1920982271533591</v>
+        <v>0.1912651819720657</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2791249388294973</v>
+        <v>0.2737276329749263</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -7268,19 +7268,19 @@
         <v>76833</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62107</v>
+        <v>62822</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95766</v>
+        <v>97148</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2213864208182487</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1789549822045348</v>
+        <v>0.1810149267242368</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2759383740176027</v>
+        <v>0.2799201885568538</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>160</v>
@@ -7289,19 +7289,19 @@
         <v>175967</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152080</v>
+        <v>153730</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>201725</v>
+        <v>201474</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2269724648506839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1961618236860059</v>
+        <v>0.1982893040666748</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.260196710143226</v>
+        <v>0.2598729032623511</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>153956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>134729</v>
+        <v>133848</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>175561</v>
+        <v>173895</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3595210708130805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3146227035645537</v>
+        <v>0.3125640958076271</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4099733109525053</v>
+        <v>0.406083664182654</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -7339,19 +7339,19 @@
         <v>98989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>82667</v>
+        <v>82555</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>116510</v>
+        <v>116236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2852261445568215</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2381957434224994</v>
+        <v>0.2378727800495098</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.335709207861519</v>
+        <v>0.3349218152852371</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>239</v>
@@ -7360,19 +7360,19 @@
         <v>252945</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>226787</v>
+        <v>226900</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>280231</v>
+        <v>280466</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3262628785109316</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.292523122692361</v>
+        <v>0.2926687486760519</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3614572712103781</v>
+        <v>0.3617614981217576</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>92210</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>74421</v>
+        <v>74512</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>109195</v>
+        <v>112310</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2153316760865709</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1737889252457525</v>
+        <v>0.1740019182217389</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2549935732152305</v>
+        <v>0.2622690453323038</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>84</v>
@@ -7410,19 +7410,19 @@
         <v>83627</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68649</v>
+        <v>69856</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>100061</v>
+        <v>99243</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2409627813786901</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1978040285294167</v>
+        <v>0.2012815998449647</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2883140860218484</v>
+        <v>0.2859578509184573</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>169</v>
@@ -7431,19 +7431,19 @@
         <v>175838</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>154660</v>
+        <v>152616</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>199050</v>
+        <v>200122</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.226805464024413</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1994889148590445</v>
+        <v>0.1968526705785605</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2567456859153595</v>
+        <v>0.2581289858979484</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>25689</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17453</v>
+        <v>16577</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38964</v>
+        <v>36501</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05999051186881088</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04075648269833083</v>
+        <v>0.03871099947370207</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09099032643138501</v>
+        <v>0.08523892481500439</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -7481,19 +7481,19 @@
         <v>23575</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15688</v>
+        <v>14687</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34787</v>
+        <v>34841</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0679292766817665</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0452038577764452</v>
+        <v>0.04231877173590207</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1002355660671761</v>
+        <v>0.1003915612849809</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -7502,19 +7502,19 @@
         <v>49265</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37218</v>
+        <v>36741</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66629</v>
+        <v>64452</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06354430726366893</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04800562157270358</v>
+        <v>0.0473903744618065</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0859419503592293</v>
+        <v>0.083133210125798</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>57235</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42928</v>
+        <v>45379</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>71657</v>
+        <v>73033</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1336570709057116</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1002474053938889</v>
+        <v>0.1059706300969408</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1673358165288162</v>
+        <v>0.1705488750817504</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -7552,19 +7552,19 @@
         <v>64030</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50132</v>
+        <v>50519</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80813</v>
+        <v>81837</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1844953765644732</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1444497274165132</v>
+        <v>0.14556534237146</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2328531266392814</v>
+        <v>0.2358028355172554</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>113</v>
@@ -7573,19 +7573,19 @@
         <v>121265</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>100641</v>
+        <v>101344</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>142471</v>
+        <v>141396</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1564148853503027</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1298127942102088</v>
+        <v>0.130719370977057</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1837674606372031</v>
+        <v>0.1823805781622235</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>89632</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72836</v>
+        <v>73458</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108050</v>
+        <v>108742</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.23957085247112</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.194678852540357</v>
+        <v>0.196340767011117</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2887991389511761</v>
+        <v>0.290648806038048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -7698,19 +7698,19 @@
         <v>70226</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55333</v>
+        <v>55847</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86874</v>
+        <v>87395</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1897308222360473</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1494952288772725</v>
+        <v>0.150883466294933</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2347083984340647</v>
+        <v>0.2361152140515048</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>145</v>
@@ -7719,19 +7719,19 @@
         <v>159858</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138446</v>
+        <v>137995</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>186195</v>
+        <v>183797</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2147848211078089</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1860158977051255</v>
+        <v>0.1854093360915272</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2501707442486092</v>
+        <v>0.2469485693307728</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>124152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>104962</v>
+        <v>105851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143424</v>
+        <v>143178</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.331835868658341</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2805444156908052</v>
+        <v>0.2829204580007503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3833468730370346</v>
+        <v>0.3826893360388606</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>125</v>
@@ -7769,19 +7769,19 @@
         <v>129609</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111570</v>
+        <v>110167</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148812</v>
+        <v>148064</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3501679786061231</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.301429801953709</v>
+        <v>0.2976390486274996</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4020482977481664</v>
+        <v>0.4000264614155865</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>242</v>
@@ -7790,19 +7790,19 @@
         <v>253761</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>225978</v>
+        <v>227932</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>281892</v>
+        <v>278305</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3409526418620949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3036235219115355</v>
+        <v>0.3062483780928491</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3787493352098619</v>
+        <v>0.3739295142610276</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>93341</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77737</v>
+        <v>74591</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>110719</v>
+        <v>108915</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2494842376939242</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2077776383173945</v>
+        <v>0.19936769844941</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2959332991257023</v>
+        <v>0.2911103446866051</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>83</v>
@@ -7840,19 +7840,19 @@
         <v>85011</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>69594</v>
+        <v>67527</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>102337</v>
+        <v>100139</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2296753177475265</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1880223576753033</v>
+        <v>0.1824377728820127</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.276486615895955</v>
+        <v>0.2705471099537486</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>173</v>
@@ -7861,19 +7861,19 @@
         <v>178352</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>155293</v>
+        <v>154782</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>201554</v>
+        <v>201116</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2396330295636525</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2086511298575358</v>
+        <v>0.2079652279453399</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2708076218792926</v>
+        <v>0.2702186043989447</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>20261</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12622</v>
+        <v>12654</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29185</v>
+        <v>29682</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05415345983919959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03373722581778703</v>
+        <v>0.03382178563253098</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07800631671386479</v>
+        <v>0.079333883137505</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -7911,19 +7911,19 @@
         <v>21257</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13189</v>
+        <v>12668</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33387</v>
+        <v>30875</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05742950093392633</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03563257781270679</v>
+        <v>0.03422495342696943</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09020335747436552</v>
+        <v>0.08341557524774804</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -7932,19 +7932,19 @@
         <v>41517</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30350</v>
+        <v>28718</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55992</v>
+        <v>55337</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05578267348410328</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04077872458619506</v>
+        <v>0.0385858983579984</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07523122851647168</v>
+        <v>0.07435008261499923</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>46750</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34236</v>
+        <v>34543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61859</v>
+        <v>62578</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1249555813374153</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0915081259602612</v>
+        <v>0.09232712364970384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1653392291832726</v>
+        <v>0.1672599079711939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -7982,19 +7982,19 @@
         <v>64032</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48704</v>
+        <v>50032</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79898</v>
+        <v>79202</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1729963804763768</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1315857714017873</v>
+        <v>0.1351729187574669</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2158610256955499</v>
+        <v>0.2139804373476665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>102</v>
@@ -8003,19 +8003,19 @@
         <v>110782</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>92381</v>
+        <v>92501</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>132463</v>
+        <v>132583</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1488468339823404</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1241228520103958</v>
+        <v>0.124284502730856</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1779764060909625</v>
+        <v>0.1781384431402005</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>130396</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>112403</v>
+        <v>109846</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>151515</v>
+        <v>153067</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2507529877078655</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2161528809001808</v>
+        <v>0.2112366134336555</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2913660918009559</v>
+        <v>0.2943501616638747</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -8128,19 +8128,19 @@
         <v>42734</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31241</v>
+        <v>32070</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56186</v>
+        <v>56033</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2572405299895607</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1880623753364441</v>
+        <v>0.1930472235667605</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3382220509090258</v>
+        <v>0.3372953782977258</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>157</v>
@@ -8149,19 +8149,19 @@
         <v>173129</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>149669</v>
+        <v>147964</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>199743</v>
+        <v>196678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2523237037080073</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2181331807190389</v>
+        <v>0.2156480742100284</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2911120754288006</v>
+        <v>0.2866447737445085</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>158472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>136181</v>
+        <v>138214</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178387</v>
+        <v>179428</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3047435243237172</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2618793692835092</v>
+        <v>0.2657882460985463</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3430405542402571</v>
+        <v>0.3450424149326916</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -8199,19 +8199,19 @@
         <v>50546</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39266</v>
+        <v>38887</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62934</v>
+        <v>63900</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3042681438642021</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2363667364118192</v>
+        <v>0.234085347211135</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3788408127271415</v>
+        <v>0.3846533412215439</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>201</v>
@@ -8220,19 +8220,19 @@
         <v>209017</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>184833</v>
+        <v>186553</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>234589</v>
+        <v>233975</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3046284287048382</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.269381141784242</v>
+        <v>0.2718880465135435</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.341897573266831</v>
+        <v>0.3410028584471942</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>125348</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>106966</v>
+        <v>105958</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>147221</v>
+        <v>144531</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2410457898516207</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2056981538396374</v>
+        <v>0.2037597850132636</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2831077702989918</v>
+        <v>0.2779360993195931</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -8270,19 +8270,19 @@
         <v>30637</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22233</v>
+        <v>22041</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42267</v>
+        <v>41616</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1844218147329264</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1338334389838996</v>
+        <v>0.1326815752004761</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2544313138860644</v>
+        <v>0.2505131263088612</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>153</v>
@@ -8291,19 +8291,19 @@
         <v>155984</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>135169</v>
+        <v>133823</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>178923</v>
+        <v>178324</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2273364096505061</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1970001675912436</v>
+        <v>0.195037874772377</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2607681075492508</v>
+        <v>0.25989571856037</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>31875</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22993</v>
+        <v>22517</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46871</v>
+        <v>43611</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06129607935998359</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04421629920314209</v>
+        <v>0.04330072746819117</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09013352468414541</v>
+        <v>0.08386401692948292</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -8341,19 +8341,19 @@
         <v>13781</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7870</v>
+        <v>8177</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23034</v>
+        <v>23114</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08295791798847307</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04737564510624585</v>
+        <v>0.049222422053814</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1386572934026302</v>
+        <v>0.1391381210693281</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -8362,19 +8362,19 @@
         <v>45656</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33766</v>
+        <v>33741</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61685</v>
+        <v>60860</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06654068433500786</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04921202506324677</v>
+        <v>0.04917498034086818</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08990221830480789</v>
+        <v>0.08869918757257267</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>73926</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59543</v>
+        <v>58045</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91557</v>
+        <v>90148</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.142161618756813</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1145028802956136</v>
+        <v>0.1116215483861775</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1760666528562822</v>
+        <v>0.1733569644061785</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -8412,19 +8412,19 @@
         <v>28426</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19182</v>
+        <v>19727</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39764</v>
+        <v>39546</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1711115934248377</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1154660527612215</v>
+        <v>0.1187507248099577</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2393633071820575</v>
+        <v>0.2380507657416645</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -8433,19 +8433,19 @@
         <v>102352</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84914</v>
+        <v>85134</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>123135</v>
+        <v>120544</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1491707736016405</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1237563158065388</v>
+        <v>0.1240772669114062</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1794607303197269</v>
+        <v>0.1756851401024619</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>279720</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>251706</v>
+        <v>249983</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>307476</v>
+        <v>311435</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2446408999056344</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2201403926323436</v>
+        <v>0.2186335218416949</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2689161265338842</v>
+        <v>0.2723784422925119</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>190</v>
@@ -8558,19 +8558,19 @@
         <v>196545</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>173872</v>
+        <v>173535</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>222986</v>
+        <v>220914</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2392782979455895</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2116751307286726</v>
+        <v>0.2112644697002818</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2714674079169034</v>
+        <v>0.2689450856131721</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>461</v>
@@ -8579,19 +8579,19 @@
         <v>476265</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>439336</v>
+        <v>438697</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>515160</v>
+        <v>517268</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2423989956488336</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2236034396286745</v>
+        <v>0.2232783514102753</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2621949529477561</v>
+        <v>0.2632678716964222</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>370480</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>339006</v>
+        <v>339205</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>403309</v>
+        <v>401605</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3240189022725506</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2964918926423444</v>
+        <v>0.296666095280504</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.352731170201727</v>
+        <v>0.351240797487535</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>231</v>
@@ -8629,19 +8629,19 @@
         <v>240323</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>213036</v>
+        <v>214329</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>267645</v>
+        <v>266533</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.292573759854137</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2593548611622771</v>
+        <v>0.2609284580017858</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3258360239568622</v>
+        <v>0.3244825997652203</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>585</v>
@@ -8650,19 +8650,19 @@
         <v>610803</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>568898</v>
+        <v>567614</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>651007</v>
+        <v>648195</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3108728587718769</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2895451520474623</v>
+        <v>0.2888915266993186</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3313351132735981</v>
+        <v>0.3299040128860181</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>240743</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>215700</v>
+        <v>213669</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>269593</v>
+        <v>269837</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2105523116172076</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1886496434590476</v>
+        <v>0.1868729283754249</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2357841131189864</v>
+        <v>0.2359972594003001</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>182</v>
@@ -8700,19 +8700,19 @@
         <v>182822</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>161022</v>
+        <v>159316</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>207220</v>
+        <v>207198</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.222571404568485</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1960317390577632</v>
+        <v>0.1939541026313502</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2522739399325091</v>
+        <v>0.2522475148418212</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>414</v>
@@ -8721,19 +8721,19 @@
         <v>423566</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>387071</v>
+        <v>387835</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>460130</v>
+        <v>458347</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.215577046969769</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1970028610811619</v>
+        <v>0.197391907969392</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2341866732107384</v>
+        <v>0.2332792627057603</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>65879</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51558</v>
+        <v>50782</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84413</v>
+        <v>84104</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05761684700657008</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04509241864947029</v>
+        <v>0.04441395008236187</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07382703895190217</v>
+        <v>0.07355663592028931</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -8771,19 +8771,19 @@
         <v>49555</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37016</v>
+        <v>37223</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>64752</v>
+        <v>64415</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06032957105642055</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04506392852311662</v>
+        <v>0.04531656229457375</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07883051561653916</v>
+        <v>0.07841988599079566</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>110</v>
@@ -8792,19 +8792,19 @@
         <v>115434</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>96648</v>
+        <v>97828</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>137869</v>
+        <v>141417</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05875093595074275</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04918993874710274</v>
+        <v>0.0497901040054964</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07016943748588411</v>
+        <v>0.07197507103520931</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>186568</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>160379</v>
+        <v>160631</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>212676</v>
+        <v>211222</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1631710391980374</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1402658903525956</v>
+        <v>0.1404862033311925</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1860048648452182</v>
+        <v>0.1847333149830161</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>143</v>
@@ -8842,19 +8842,19 @@
         <v>152164</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>131270</v>
+        <v>130496</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>176220</v>
+        <v>176838</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1852469665753679</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1598109500622345</v>
+        <v>0.1588682714313404</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2145338383877598</v>
+        <v>0.2152864621456179</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>321</v>
@@ -8863,19 +8863,19 @@
         <v>338732</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>305241</v>
+        <v>305601</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>374711</v>
+        <v>373759</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1724001626587776</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.155354602437809</v>
+        <v>0.1555379908465303</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1907119954937601</v>
+        <v>0.1902277080757459</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>160651</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>141313</v>
+        <v>140859</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>184159</v>
+        <v>185723</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2588193804867943</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2276651200076413</v>
+        <v>0.226932810209237</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2966923589827926</v>
+        <v>0.2992123776127761</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>193</v>
@@ -8988,19 +8988,19 @@
         <v>205662</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>180210</v>
+        <v>182483</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>233330</v>
+        <v>230147</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2789228219938309</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2444045136696244</v>
+        <v>0.2474875768694162</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3164473792865297</v>
+        <v>0.312130559157625</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>346</v>
@@ -9009,19 +9009,19 @@
         <v>366312</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>332692</v>
+        <v>331520</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>400791</v>
+        <v>398797</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2697343982973073</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2449784089146294</v>
+        <v>0.2441152659860962</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2951229233532824</v>
+        <v>0.2936548107302218</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>197989</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>172743</v>
+        <v>175612</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>219341</v>
+        <v>221086</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3189732743993758</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.278301259099291</v>
+        <v>0.2829236130366041</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3533737300141858</v>
+        <v>0.3561846831946981</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>218</v>
@@ -9059,19 +9059,19 @@
         <v>227671</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>203503</v>
+        <v>202300</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>254266</v>
+        <v>253799</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3087723997225949</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2759951221452524</v>
+        <v>0.2743639593481819</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3448409507873871</v>
+        <v>0.3442069439987852</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>409</v>
@@ -9080,19 +9080,19 @@
         <v>425659</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>392851</v>
+        <v>391190</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>462034</v>
+        <v>461711</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3134347834528927</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2892764752900965</v>
+        <v>0.2880532002117533</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3402188562530546</v>
+        <v>0.3399813525262013</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>144307</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>124406</v>
+        <v>124082</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>166186</v>
+        <v>167090</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2324890393821612</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.200426620495413</v>
+        <v>0.1999054043567075</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2677371206777625</v>
+        <v>0.2691942067394198</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>131</v>
@@ -9130,19 +9130,19 @@
         <v>135599</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>115584</v>
+        <v>116611</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>160731</v>
+        <v>159292</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1839017021078516</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1567577518812542</v>
+        <v>0.1581505953434939</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2179864529142103</v>
+        <v>0.2160356337593788</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>270</v>
@@ -9151,19 +9151,19 @@
         <v>279906</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>249626</v>
+        <v>249306</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>313071</v>
+        <v>308196</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2061088968812434</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1838123146399467</v>
+        <v>0.1835766011856458</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2305303781868359</v>
+        <v>0.2269405980586733</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>28419</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>18730</v>
+        <v>19392</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39652</v>
+        <v>40150</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04578448899523431</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03017484981985981</v>
+        <v>0.03124191040542651</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06388145882693222</v>
+        <v>0.06468364926388218</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>33</v>
@@ -9201,19 +9201,19 @@
         <v>34520</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24340</v>
+        <v>24028</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>46640</v>
+        <v>48105</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04681653460322558</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03301103206015132</v>
+        <v>0.03258758499621501</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06325350611856916</v>
+        <v>0.06524048459188278</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>60</v>
@@ -9222,19 +9222,19 @@
         <v>62939</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>49105</v>
+        <v>48848</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>79894</v>
+        <v>80990</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0463448306754657</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03615879360268253</v>
+        <v>0.03596912246679476</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05883002554355373</v>
+        <v>0.05963739639121164</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>89341</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>74388</v>
+        <v>72612</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>108764</v>
+        <v>108120</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1439338167364343</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1198438886152188</v>
+        <v>0.1169835252950625</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1752259990919383</v>
+        <v>0.1741883496121609</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>123</v>
@@ -9272,19 +9272,19 @@
         <v>133892</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>113071</v>
+        <v>114235</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>156489</v>
+        <v>157337</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1815865415724969</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.153349636333555</v>
+        <v>0.15492735971922</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2122334402528201</v>
+        <v>0.2133832166510362</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>210</v>
@@ -9293,19 +9293,19 @@
         <v>223232</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>195023</v>
+        <v>200007</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>251908</v>
+        <v>252570</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1643770906930908</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1436052637631219</v>
+        <v>0.14727500637937</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1854926437268225</v>
+        <v>0.1859802559972904</v>
       </c>
     </row>
     <row r="33">
@@ -9397,19 +9397,19 @@
         <v>68214</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>54253</v>
+        <v>54085</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>83488</v>
+        <v>85646</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2393659708649221</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1903761409661321</v>
+        <v>0.1897843062603972</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.292962391395155</v>
+        <v>0.3005331800724495</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>219</v>
@@ -9418,19 +9418,19 @@
         <v>244508</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>214076</v>
+        <v>217033</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>273301</v>
+        <v>274902</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2270194673499444</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1987644149507463</v>
+        <v>0.2015092441382745</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2537527875677827</v>
+        <v>0.25523924785433</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>282</v>
@@ -9439,19 +9439,19 @@
         <v>312722</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>280409</v>
+        <v>283406</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>345598</v>
+        <v>346411</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.229602768103629</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2058777039238961</v>
+        <v>0.2080785272019131</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2537399119160594</v>
+        <v>0.254337437793696</v>
       </c>
     </row>
     <row r="35">
@@ -9468,19 +9468,19 @@
         <v>89510</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>73812</v>
+        <v>73678</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>104216</v>
+        <v>105606</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3140941208498261</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2590098218744805</v>
+        <v>0.2585397967452726</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3656977588569237</v>
+        <v>0.3705750150939592</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>287</v>
@@ -9489,19 +9489,19 @@
         <v>312055</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>280798</v>
+        <v>283804</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>342374</v>
+        <v>345018</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.28973484419254</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2607133160427995</v>
+        <v>0.2635045173323374</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3178857478386114</v>
+        <v>0.3203402956311682</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>374</v>
@@ -9510,19 +9510,19 @@
         <v>401565</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>366935</v>
+        <v>369972</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>437710</v>
+        <v>435460</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2948316181635384</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2694063015783604</v>
+        <v>0.2716354159607635</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3213690904992357</v>
+        <v>0.3197174068546652</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>74954</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>60705</v>
+        <v>59987</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>91653</v>
+        <v>91747</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2630171283959876</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2130152826709411</v>
+        <v>0.2104947092552081</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3216139266224131</v>
+        <v>0.3219430514620804</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>175</v>
@@ -9560,19 +9560,19 @@
         <v>181976</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>160636</v>
+        <v>157077</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>209502</v>
+        <v>207828</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1689597539651522</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1491467927989033</v>
+        <v>0.1458423709134825</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1945167981458223</v>
+        <v>0.1929630959491686</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>244</v>
@@ -9581,19 +9581,19 @@
         <v>256930</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>226864</v>
+        <v>227937</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>287667</v>
+        <v>286403</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1886396970325971</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1665650563419867</v>
+        <v>0.1673524635362279</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2112068749258804</v>
+        <v>0.2102788896537149</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>15038</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>8734</v>
+        <v>8953</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>23358</v>
+        <v>24204</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05276996027721988</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03064854207363439</v>
+        <v>0.03141575618996234</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08196495876239727</v>
+        <v>0.08493170999011718</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>76</v>
@@ -9631,19 +9631,19 @@
         <v>81449</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>66372</v>
+        <v>65251</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>101669</v>
+        <v>101014</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07562337503411434</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06162485448396591</v>
+        <v>0.06058426788006678</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09439685538203596</v>
+        <v>0.09378850775596649</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>91</v>
@@ -9652,19 +9652,19 @@
         <v>96487</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>79335</v>
+        <v>79247</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>117684</v>
+        <v>119599</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07084167764957687</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05824836313848245</v>
+        <v>0.0581836850437495</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08640430567459972</v>
+        <v>0.08781031694397642</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>37262</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>26692</v>
+        <v>27337</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>49517</v>
+        <v>49205</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1307528196120443</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09366238512940374</v>
+        <v>0.09592503480366983</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.173757421694757</v>
+        <v>0.1726635080919346</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>231</v>
@@ -9702,19 +9702,19 @@
         <v>257048</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>226545</v>
+        <v>227449</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>285730</v>
+        <v>285913</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.238662559458249</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2103407357595116</v>
+        <v>0.2111808528579219</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2652926631220944</v>
+        <v>0.2654628407564366</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>267</v>
@@ -9723,19 +9723,19 @@
         <v>294310</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>265062</v>
+        <v>263420</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>329209</v>
+        <v>325055</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2160842390506587</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1946104707103064</v>
+        <v>0.1934044349297646</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2417073689676625</v>
+        <v>0.2386575966091914</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>827747</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>771141</v>
+        <v>780676</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>878748</v>
+        <v>879760</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2455163407776804</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2287265358160415</v>
+        <v>0.2315549572615098</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2606437773442081</v>
+        <v>0.2609439698016904</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>773</v>
@@ -9848,19 +9848,19 @@
         <v>836508</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>781782</v>
+        <v>786018</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>886156</v>
+        <v>887612</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2377050638597394</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2221538519349556</v>
+        <v>0.2233577243888527</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2518132488303225</v>
+        <v>0.2522268620076535</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1551</v>
@@ -9869,19 +9869,19 @@
         <v>1664254</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1581919</v>
+        <v>1587486</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1738914</v>
+        <v>1729818</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2415270137180132</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2295779921220663</v>
+        <v>0.2303859547171352</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2523620905269056</v>
+        <v>0.251041985066998</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>1094558</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1037958</v>
+        <v>1038561</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1147086</v>
+        <v>1154368</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3246547828055796</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3078667197988167</v>
+        <v>0.308045598974439</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3402348777129288</v>
+        <v>0.3423948789444446</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1004</v>
@@ -9919,19 +9919,19 @@
         <v>1059193</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1004035</v>
+        <v>1006370</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1115096</v>
+        <v>1116494</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3009840420603626</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.285310078524759</v>
+        <v>0.2859735775295129</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3168695611974283</v>
+        <v>0.3172668874477157</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2050</v>
@@ -9940,19 +9940,19 @@
         <v>2153751</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2079083</v>
+        <v>2084864</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2239688</v>
+        <v>2231726</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3125658084203067</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3017296377680104</v>
+        <v>0.3025684939357361</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3250375210538446</v>
+        <v>0.3238821025451464</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>770904</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>721308</v>
+        <v>724870</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>825700</v>
+        <v>823378</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2286564410009806</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2139458260490248</v>
+        <v>0.2150024640192779</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2449092600631107</v>
+        <v>0.2442204608721533</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>686</v>
@@ -9990,19 +9990,19 @@
         <v>699671</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>651756</v>
+        <v>657504</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>747858</v>
+        <v>750239</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1988210782268486</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1852053875976326</v>
+        <v>0.1868387417135105</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2125139093204584</v>
+        <v>0.2131904907413002</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1423</v>
@@ -10011,19 +10011,19 @@
         <v>1470575</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1405690</v>
+        <v>1398600</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1542821</v>
+        <v>1541970</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2134191089616491</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2040025323919941</v>
+        <v>0.2029736508344014</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2239037997529523</v>
+        <v>0.2237804010591053</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>187161</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>161546</v>
+        <v>161670</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>214601</v>
+        <v>216365</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05551338168522276</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04791579088280377</v>
+        <v>0.04795276493917851</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06365233771275075</v>
+        <v>0.0641754851353921</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>211</v>
@@ -10061,19 +10061,19 @@
         <v>224137</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>195144</v>
+        <v>193174</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>257062</v>
+        <v>253523</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.06369162939298667</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05545289290663668</v>
+        <v>0.05489287932439597</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0730475448904173</v>
+        <v>0.07204188398061215</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>390</v>
@@ -10082,19 +10082,19 @@
         <v>411298</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>370442</v>
+        <v>372180</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>455837</v>
+        <v>455101</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05969012579812306</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05376091051401458</v>
+        <v>0.05401315904619595</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0661539168483443</v>
+        <v>0.06604707751898618</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>491083</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>454518</v>
+        <v>449272</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>536234</v>
+        <v>533985</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1456590537305367</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1348137720225629</v>
+        <v>0.1332578587558033</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1590512243286247</v>
+        <v>0.1583841611131054</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>641</v>
@@ -10132,19 +10132,19 @@
         <v>699591</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>656070</v>
+        <v>645180</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>754956</v>
+        <v>746439</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1987981864600627</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1864311653740534</v>
+        <v>0.1833366451544019</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2145311118798549</v>
+        <v>0.212110723121103</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1111</v>
@@ -10153,19 +10153,19 @@
         <v>1190673</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1129493</v>
+        <v>1132371</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1257809</v>
+        <v>1258229</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1727979431019079</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1639190624035189</v>
+        <v>0.16433681933588</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1825411862081682</v>
+        <v>0.1826021244125413</v>
       </c>
     </row>
     <row r="45">
